--- a/flow_based_domain/plants.xlsx
+++ b/flow_based_domain/plants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I556"/>
+  <dimension ref="A1:J556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>node</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>construction_year</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -511,6 +516,9 @@
       <c r="I2" t="n">
         <v>1091</v>
       </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -548,6 +556,9 @@
       <c r="I3" t="n">
         <v>1280</v>
       </c>
+      <c r="J3" t="n">
+        <v>1974</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -585,6 +596,9 @@
       <c r="I4" t="n">
         <v>690</v>
       </c>
+      <c r="J4" t="n">
+        <v>1970</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -622,6 +636,9 @@
       <c r="I5" t="n">
         <v>1064</v>
       </c>
+      <c r="J5" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -659,6 +676,9 @@
       <c r="I6" t="n">
         <v>690</v>
       </c>
+      <c r="J6" t="n">
+        <v>1993</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -696,6 +716,9 @@
       <c r="I7" t="n">
         <v>364</v>
       </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -733,6 +756,9 @@
       <c r="I8" t="n">
         <v>1064</v>
       </c>
+      <c r="J8" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -770,6 +796,9 @@
       <c r="I9" t="n">
         <v>1133</v>
       </c>
+      <c r="J9" t="n">
+        <v>1959</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -807,6 +836,9 @@
       <c r="I10" t="n">
         <v>794</v>
       </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -844,6 +876,9 @@
       <c r="I11" t="n">
         <v>1353</v>
       </c>
+      <c r="J11" t="n">
+        <v>1956</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -881,6 +916,9 @@
       <c r="I12" t="n">
         <v>364</v>
       </c>
+      <c r="J12" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -918,6 +956,9 @@
       <c r="I13" t="n">
         <v>690</v>
       </c>
+      <c r="J13" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -955,6 +996,9 @@
       <c r="I14" t="n">
         <v>79</v>
       </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -992,6 +1036,9 @@
       <c r="I15" t="n">
         <v>93</v>
       </c>
+      <c r="J15" t="n">
+        <v>1998</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1029,6 +1076,9 @@
       <c r="I16" t="n">
         <v>42</v>
       </c>
+      <c r="J16" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1066,6 +1116,9 @@
       <c r="I17" t="n">
         <v>1489</v>
       </c>
+      <c r="J17" t="n">
+        <v>1964</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1103,6 +1156,9 @@
       <c r="I18" t="n">
         <v>982</v>
       </c>
+      <c r="J18" t="n">
+        <v>1949</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1140,6 +1196,9 @@
       <c r="I19" t="n">
         <v>253</v>
       </c>
+      <c r="J19" t="n">
+        <v>1972</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1177,6 +1236,9 @@
       <c r="I20" t="n">
         <v>521</v>
       </c>
+      <c r="J20" t="n">
+        <v>2008</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1214,6 +1276,9 @@
       <c r="I21" t="n">
         <v>1353</v>
       </c>
+      <c r="J21" t="n">
+        <v>1953</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1251,6 +1316,9 @@
       <c r="I22" t="n">
         <v>1324</v>
       </c>
+      <c r="J22" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1288,6 +1356,9 @@
       <c r="I23" t="n">
         <v>664</v>
       </c>
+      <c r="J23" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1325,6 +1396,9 @@
       <c r="I24" t="n">
         <v>1143</v>
       </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1362,6 +1436,9 @@
       <c r="I25" t="n">
         <v>312</v>
       </c>
+      <c r="J25" t="n">
+        <v>1968</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1399,6 +1476,9 @@
       <c r="I26" t="n">
         <v>1091</v>
       </c>
+      <c r="J26" t="n">
+        <v>1986</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1436,6 +1516,9 @@
       <c r="I27" t="n">
         <v>1353</v>
       </c>
+      <c r="J27" t="n">
+        <v>1956</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1473,6 +1556,9 @@
       <c r="I28" t="n">
         <v>1353</v>
       </c>
+      <c r="J28" t="n">
+        <v>1960</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1510,6 +1596,9 @@
       <c r="I29" t="n">
         <v>93</v>
       </c>
+      <c r="J29" t="n">
+        <v>2001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1547,6 +1636,9 @@
       <c r="I30" t="n">
         <v>93</v>
       </c>
+      <c r="J30" t="n">
+        <v>2009</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1584,6 +1676,9 @@
       <c r="I31" t="n">
         <v>364</v>
       </c>
+      <c r="J31" t="n">
+        <v>1953</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1621,6 +1716,9 @@
       <c r="I32" t="n">
         <v>364</v>
       </c>
+      <c r="J32" t="n">
+        <v>2009</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1658,6 +1756,9 @@
       <c r="I33" t="n">
         <v>53</v>
       </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1695,6 +1796,9 @@
       <c r="I34" t="n">
         <v>253</v>
       </c>
+      <c r="J34" t="n">
+        <v>1970</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1732,6 +1836,9 @@
       <c r="I35" t="n">
         <v>253</v>
       </c>
+      <c r="J35" t="n">
+        <v>1988</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1769,6 +1876,9 @@
       <c r="I36" t="n">
         <v>1133</v>
       </c>
+      <c r="J36" t="n">
+        <v>1982</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1806,6 +1916,9 @@
       <c r="I37" t="n">
         <v>664</v>
       </c>
+      <c r="J37" t="n">
+        <v>1985</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1843,6 +1956,9 @@
       <c r="I38" t="n">
         <v>123</v>
       </c>
+      <c r="J38" t="n">
+        <v>2001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1880,6 +1996,9 @@
       <c r="I39" t="n">
         <v>797</v>
       </c>
+      <c r="J39" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1917,6 +2036,9 @@
       <c r="I40" t="n">
         <v>639</v>
       </c>
+      <c r="J40" t="n">
+        <v>1969</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1954,6 +2076,9 @@
       <c r="I41" t="n">
         <v>1406</v>
       </c>
+      <c r="J41" t="n">
+        <v>1993</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1991,6 +2116,9 @@
       <c r="I42" t="n">
         <v>94</v>
       </c>
+      <c r="J42" t="n">
+        <v>2008</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2028,6 +2156,9 @@
       <c r="I43" t="n">
         <v>1500</v>
       </c>
+      <c r="J43" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2065,6 +2196,9 @@
       <c r="I44" t="n">
         <v>379</v>
       </c>
+      <c r="J44" t="n">
+        <v>2009</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2102,6 +2236,9 @@
       <c r="I45" t="n">
         <v>797</v>
       </c>
+      <c r="J45" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2139,6 +2276,9 @@
       <c r="I46" t="n">
         <v>375</v>
       </c>
+      <c r="J46" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2176,6 +2316,9 @@
       <c r="I47" t="n">
         <v>690</v>
       </c>
+      <c r="J47" t="n">
+        <v>1969</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2213,6 +2356,9 @@
       <c r="I48" t="n">
         <v>797</v>
       </c>
+      <c r="J48" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2250,6 +2396,9 @@
       <c r="I49" t="n">
         <v>842</v>
       </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2287,6 +2436,9 @@
       <c r="I50" t="n">
         <v>1283</v>
       </c>
+      <c r="J50" t="n">
+        <v>1998</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2324,6 +2476,9 @@
       <c r="I51" t="n">
         <v>842</v>
       </c>
+      <c r="J51" t="n">
+        <v>1998</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2361,6 +2516,9 @@
       <c r="I52" t="n">
         <v>797</v>
       </c>
+      <c r="J52" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2398,6 +2556,9 @@
       <c r="I53" t="n">
         <v>188</v>
       </c>
+      <c r="J53" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2435,6 +2596,9 @@
       <c r="I54" t="n">
         <v>420</v>
       </c>
+      <c r="J54" t="n">
+        <v>2005</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2472,6 +2636,9 @@
       <c r="I55" t="n">
         <v>1307</v>
       </c>
+      <c r="J55" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2509,6 +2676,9 @@
       <c r="I56" t="n">
         <v>1243</v>
       </c>
+      <c r="J56" t="n">
+        <v>2001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2546,6 +2716,9 @@
       <c r="I57" t="n">
         <v>1307</v>
       </c>
+      <c r="J57" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2583,6 +2756,9 @@
       <c r="I58" t="n">
         <v>1307</v>
       </c>
+      <c r="J58" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2620,6 +2796,9 @@
       <c r="I59" t="n">
         <v>1307</v>
       </c>
+      <c r="J59" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2657,6 +2836,9 @@
       <c r="I60" t="n">
         <v>880</v>
       </c>
+      <c r="J60" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2694,6 +2876,9 @@
       <c r="I61" t="n">
         <v>1500</v>
       </c>
+      <c r="J61" t="n">
+        <v>1981</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2731,6 +2916,9 @@
       <c r="I62" t="n">
         <v>1334</v>
       </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2768,6 +2956,9 @@
       <c r="I63" t="n">
         <v>1152</v>
       </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2805,6 +2996,9 @@
       <c r="I64" t="n">
         <v>48</v>
       </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2842,6 +3036,9 @@
       <c r="I65" t="n">
         <v>977</v>
       </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2879,6 +3076,9 @@
       <c r="I66" t="n">
         <v>455</v>
       </c>
+      <c r="J66" t="n">
+        <v>1978</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2916,6 +3116,9 @@
       <c r="I67" t="n">
         <v>455</v>
       </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2953,6 +3156,9 @@
       <c r="I68" t="n">
         <v>977</v>
       </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2990,6 +3196,9 @@
       <c r="I69" t="n">
         <v>1461</v>
       </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3027,6 +3236,9 @@
       <c r="I70" t="n">
         <v>778</v>
       </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3064,6 +3276,9 @@
       <c r="I71" t="n">
         <v>1174</v>
       </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3101,6 +3316,9 @@
       <c r="I72" t="n">
         <v>778</v>
       </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3138,6 +3356,9 @@
       <c r="I73" t="n">
         <v>977</v>
       </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3175,6 +3396,9 @@
       <c r="I74" t="n">
         <v>111</v>
       </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3212,6 +3436,9 @@
       <c r="I75" t="n">
         <v>629</v>
       </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3249,6 +3476,9 @@
       <c r="I76" t="n">
         <v>48</v>
       </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3286,6 +3516,9 @@
       <c r="I77" t="n">
         <v>316</v>
       </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3323,6 +3556,9 @@
       <c r="I78" t="n">
         <v>977</v>
       </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3360,6 +3596,9 @@
       <c r="I79" t="n">
         <v>48</v>
       </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3397,6 +3636,9 @@
       <c r="I80" t="n">
         <v>1236</v>
       </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3434,6 +3676,9 @@
       <c r="I81" t="n">
         <v>778</v>
       </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3471,6 +3716,9 @@
       <c r="I82" t="n">
         <v>424</v>
       </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3508,6 +3756,9 @@
       <c r="I83" t="n">
         <v>1197</v>
       </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3545,6 +3796,9 @@
       <c r="I84" t="n">
         <v>332</v>
       </c>
+      <c r="J84" t="n">
+        <v>1996</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3582,6 +3836,9 @@
       <c r="I85" t="n">
         <v>1197</v>
       </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3619,6 +3876,9 @@
       <c r="I86" t="n">
         <v>1460</v>
       </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3656,6 +3916,9 @@
       <c r="I87" t="n">
         <v>1008</v>
       </c>
+      <c r="J87" t="n">
+        <v>1961</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3693,6 +3956,9 @@
       <c r="I88" t="n">
         <v>424</v>
       </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3730,6 +3996,9 @@
       <c r="I89" t="n">
         <v>1000</v>
       </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3767,6 +4036,9 @@
       <c r="I90" t="n">
         <v>958</v>
       </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3804,6 +4076,9 @@
       <c r="I91" t="n">
         <v>1057</v>
       </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3841,6 +4116,9 @@
       <c r="I92" t="n">
         <v>870</v>
       </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3878,6 +4156,9 @@
       <c r="I93" t="n">
         <v>1034</v>
       </c>
+      <c r="J93" t="n">
+        <v>1964</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3915,6 +4196,9 @@
       <c r="I94" t="n">
         <v>1088</v>
       </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3952,6 +4236,9 @@
       <c r="I95" t="n">
         <v>408</v>
       </c>
+      <c r="J95" t="n">
+        <v>1965</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3989,6 +4276,9 @@
       <c r="I96" t="n">
         <v>284</v>
       </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4026,6 +4316,9 @@
       <c r="I97" t="n">
         <v>274</v>
       </c>
+      <c r="J97" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4063,6 +4356,9 @@
       <c r="I98" t="n">
         <v>90</v>
       </c>
+      <c r="J98" t="n">
+        <v>1974</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4100,6 +4396,9 @@
       <c r="I99" t="n">
         <v>824</v>
       </c>
+      <c r="J99" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4137,6 +4436,9 @@
       <c r="I100" t="n">
         <v>1419</v>
       </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4174,6 +4476,9 @@
       <c r="I101" t="n">
         <v>265</v>
       </c>
+      <c r="J101" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4211,6 +4516,9 @@
       <c r="I102" t="n">
         <v>449</v>
       </c>
+      <c r="J102" t="n">
+        <v>1964</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4248,6 +4556,9 @@
       <c r="I103" t="n">
         <v>1143</v>
       </c>
+      <c r="J103" t="n">
+        <v>1995</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4285,6 +4596,9 @@
       <c r="I104" t="n">
         <v>1166</v>
       </c>
+      <c r="J104" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4322,6 +4636,9 @@
       <c r="I105" t="n">
         <v>1425</v>
       </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4359,6 +4676,9 @@
       <c r="I106" t="n">
         <v>1232</v>
       </c>
+      <c r="J106" t="n">
+        <v>1986</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4396,6 +4716,9 @@
       <c r="I107" t="n">
         <v>1195</v>
       </c>
+      <c r="J107" t="n">
+        <v>2007</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4433,6 +4756,9 @@
       <c r="I108" t="n">
         <v>738</v>
       </c>
+      <c r="J108" t="n">
+        <v>1973</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4470,6 +4796,9 @@
       <c r="I109" t="n">
         <v>1078</v>
       </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4507,6 +4836,9 @@
       <c r="I110" t="n">
         <v>272</v>
       </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4544,6 +4876,9 @@
       <c r="I111" t="n">
         <v>975</v>
       </c>
+      <c r="J111" t="n">
+        <v>1955</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4581,6 +4916,9 @@
       <c r="I112" t="n">
         <v>668</v>
       </c>
+      <c r="J112" t="n">
+        <v>2009</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4618,6 +4956,9 @@
       <c r="I113" t="n">
         <v>1031</v>
       </c>
+      <c r="J113" t="n">
+        <v>1989</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4655,6 +4996,9 @@
       <c r="I114" t="n">
         <v>1144</v>
       </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4692,6 +5036,9 @@
       <c r="I115" t="n">
         <v>418</v>
       </c>
+      <c r="J115" t="n">
+        <v>1998</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4729,6 +5076,9 @@
       <c r="I116" t="n">
         <v>1419</v>
       </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4766,6 +5116,9 @@
       <c r="I117" t="n">
         <v>284</v>
       </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4803,6 +5156,9 @@
       <c r="I118" t="n">
         <v>1078</v>
       </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4840,6 +5196,9 @@
       <c r="I119" t="n">
         <v>1143</v>
       </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4877,6 +5236,9 @@
       <c r="I120" t="n">
         <v>1088</v>
       </c>
+      <c r="J120" t="n">
+        <v>1992</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4914,6 +5276,9 @@
       <c r="I121" t="n">
         <v>1084</v>
       </c>
+      <c r="J121" t="n">
+        <v>2013</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4951,6 +5316,9 @@
       <c r="I122" t="n">
         <v>578</v>
       </c>
+      <c r="J122" t="n">
+        <v>1993</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4988,6 +5356,9 @@
       <c r="I123" t="n">
         <v>280</v>
       </c>
+      <c r="J123" t="n">
+        <v>1931</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5025,6 +5396,9 @@
       <c r="I124" t="n">
         <v>53</v>
       </c>
+      <c r="J124" t="n">
+        <v>2001</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5062,6 +5436,9 @@
       <c r="I125" t="n">
         <v>738</v>
       </c>
+      <c r="J125" t="n">
+        <v>2005</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5099,6 +5476,9 @@
       <c r="I126" t="n">
         <v>687</v>
       </c>
+      <c r="J126" t="n">
+        <v>1981</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5136,6 +5516,9 @@
       <c r="I127" t="n">
         <v>913</v>
       </c>
+      <c r="J127" t="n">
+        <v>1992</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5173,6 +5556,9 @@
       <c r="I128" t="n">
         <v>418</v>
       </c>
+      <c r="J128" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5210,6 +5596,9 @@
       <c r="I129" t="n">
         <v>1179</v>
       </c>
+      <c r="J129" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5247,6 +5636,9 @@
       <c r="I130" t="n">
         <v>1251</v>
       </c>
+      <c r="J130" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5284,6 +5676,9 @@
       <c r="I131" t="n">
         <v>1214</v>
       </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5321,6 +5716,9 @@
       <c r="I132" t="n">
         <v>234</v>
       </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5358,6 +5756,9 @@
       <c r="I133" t="n">
         <v>382</v>
       </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5395,6 +5796,9 @@
       <c r="I134" t="n">
         <v>1074</v>
       </c>
+      <c r="J134" t="n">
+        <v>1972</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5432,6 +5836,9 @@
       <c r="I135" t="n">
         <v>321</v>
       </c>
+      <c r="J135" t="n">
+        <v>1997</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5469,6 +5876,9 @@
       <c r="I136" t="n">
         <v>1432</v>
       </c>
+      <c r="J136" t="n">
+        <v>2004</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5506,6 +5916,9 @@
       <c r="I137" t="n">
         <v>1300</v>
       </c>
+      <c r="J137" t="n">
+        <v>1958</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5543,6 +5956,9 @@
       <c r="I138" t="n">
         <v>276</v>
       </c>
+      <c r="J138" t="n">
+        <v>1968</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5580,6 +5996,9 @@
       <c r="I139" t="n">
         <v>950</v>
       </c>
+      <c r="J139" t="n">
+        <v>1999</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5617,6 +6036,9 @@
       <c r="I140" t="n">
         <v>1132</v>
       </c>
+      <c r="J140" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5654,6 +6076,9 @@
       <c r="I141" t="n">
         <v>1078</v>
       </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5691,6 +6116,9 @@
       <c r="I142" t="n">
         <v>1273</v>
       </c>
+      <c r="J142" t="n">
+        <v>1961</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5728,6 +6156,9 @@
       <c r="I143" t="n">
         <v>1027</v>
       </c>
+      <c r="J143" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5765,6 +6196,9 @@
       <c r="I144" t="n">
         <v>1166</v>
       </c>
+      <c r="J144" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5802,6 +6236,9 @@
       <c r="I145" t="n">
         <v>1457</v>
       </c>
+      <c r="J145" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5839,6 +6276,9 @@
       <c r="I146" t="n">
         <v>1251</v>
       </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5876,6 +6316,9 @@
       <c r="I147" t="n">
         <v>695</v>
       </c>
+      <c r="J147" t="n">
+        <v>1994</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5913,6 +6356,9 @@
       <c r="I148" t="n">
         <v>146</v>
       </c>
+      <c r="J148" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5950,6 +6396,9 @@
       <c r="I149" t="n">
         <v>418</v>
       </c>
+      <c r="J149" t="n">
+        <v>1989</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5987,6 +6436,9 @@
       <c r="I150" t="n">
         <v>697</v>
       </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6024,6 +6476,9 @@
       <c r="I151" t="n">
         <v>950</v>
       </c>
+      <c r="J151" t="n">
+        <v>1996</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6061,6 +6516,9 @@
       <c r="I152" t="n">
         <v>421</v>
       </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6098,6 +6556,9 @@
       <c r="I153" t="n">
         <v>581</v>
       </c>
+      <c r="J153" t="n">
+        <v>2005</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6135,6 +6596,9 @@
       <c r="I154" t="n">
         <v>1260</v>
       </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6172,6 +6636,9 @@
       <c r="I155" t="n">
         <v>604</v>
       </c>
+      <c r="J155" t="n">
+        <v>1978</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6209,6 +6676,9 @@
       <c r="I156" t="n">
         <v>28</v>
       </c>
+      <c r="J156" t="n">
+        <v>1996</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6246,6 +6716,9 @@
       <c r="I157" t="n">
         <v>968</v>
       </c>
+      <c r="J157" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6283,6 +6756,9 @@
       <c r="I158" t="n">
         <v>1195</v>
       </c>
+      <c r="J158" t="n">
+        <v>2007</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6320,6 +6796,9 @@
       <c r="I159" t="n">
         <v>1092</v>
       </c>
+      <c r="J159" t="n">
+        <v>1963</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6357,6 +6836,9 @@
       <c r="I160" t="n">
         <v>570</v>
       </c>
+      <c r="J160" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6394,6 +6876,9 @@
       <c r="I161" t="n">
         <v>634</v>
       </c>
+      <c r="J161" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6431,6 +6916,9 @@
       <c r="I162" t="n">
         <v>146</v>
       </c>
+      <c r="J162" t="n">
+        <v>1990</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6468,6 +6956,9 @@
       <c r="I163" t="n">
         <v>1146</v>
       </c>
+      <c r="J163" t="n">
+        <v>1972</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6505,6 +6996,9 @@
       <c r="I164" t="n">
         <v>1078</v>
       </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6542,6 +7036,9 @@
       <c r="I165" t="n">
         <v>1180</v>
       </c>
+      <c r="J165" t="n">
+        <v>1959</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6579,6 +7076,9 @@
       <c r="I166" t="n">
         <v>284</v>
       </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6616,6 +7116,9 @@
       <c r="I167" t="n">
         <v>1445</v>
       </c>
+      <c r="J167" t="n">
+        <v>1985</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6653,6 +7156,9 @@
       <c r="I168" t="n">
         <v>1088</v>
       </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6690,6 +7196,9 @@
       <c r="I169" t="n">
         <v>1239</v>
       </c>
+      <c r="J169" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6727,6 +7236,9 @@
       <c r="I170" t="n">
         <v>1255</v>
       </c>
+      <c r="J170" t="n">
+        <v>1978</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6764,6 +7276,9 @@
       <c r="I171" t="n">
         <v>449</v>
       </c>
+      <c r="J171" t="n">
+        <v>1989</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6801,6 +7316,9 @@
       <c r="I172" t="n">
         <v>646</v>
       </c>
+      <c r="J172" t="n">
+        <v>1969</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6838,6 +7356,9 @@
       <c r="I173" t="n">
         <v>1078</v>
       </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6875,6 +7396,9 @@
       <c r="I174" t="n">
         <v>182</v>
       </c>
+      <c r="J174" t="n">
+        <v>1988</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6912,6 +7436,9 @@
       <c r="I175" t="n">
         <v>634</v>
       </c>
+      <c r="J175" t="n">
+        <v>1985</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6949,6 +7476,9 @@
       <c r="I176" t="n">
         <v>757</v>
       </c>
+      <c r="J176" t="n">
+        <v>1985</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6986,6 +7516,9 @@
       <c r="I177" t="n">
         <v>1419</v>
       </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7023,6 +7556,9 @@
       <c r="I178" t="n">
         <v>1293</v>
       </c>
+      <c r="J178" t="n">
+        <v>2008</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7060,6 +7596,9 @@
       <c r="I179" t="n">
         <v>467</v>
       </c>
+      <c r="J179" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7097,6 +7636,9 @@
       <c r="I180" t="n">
         <v>319</v>
       </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7134,6 +7676,9 @@
       <c r="I181" t="n">
         <v>53</v>
       </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7171,6 +7716,9 @@
       <c r="I182" t="n">
         <v>28</v>
       </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7208,6 +7756,9 @@
       <c r="I183" t="n">
         <v>1459</v>
       </c>
+      <c r="J183" t="n">
+        <v>1963</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7245,6 +7796,9 @@
       <c r="I184" t="n">
         <v>1458</v>
       </c>
+      <c r="J184" t="n">
+        <v>1989</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7282,6 +7836,9 @@
       <c r="I185" t="n">
         <v>234</v>
       </c>
+      <c r="J185" t="n">
+        <v>1988</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7319,6 +7876,9 @@
       <c r="I186" t="n">
         <v>505</v>
       </c>
+      <c r="J186" t="n">
+        <v>1973</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7356,6 +7916,9 @@
       <c r="I187" t="n">
         <v>845</v>
       </c>
+      <c r="J187" t="n">
+        <v>1981</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7393,6 +7956,9 @@
       <c r="I188" t="n">
         <v>132</v>
       </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7430,6 +7996,9 @@
       <c r="I189" t="n">
         <v>553</v>
       </c>
+      <c r="J189" t="n">
+        <v>1981</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7467,6 +8036,9 @@
       <c r="I190" t="n">
         <v>553</v>
       </c>
+      <c r="J190" t="n">
+        <v>1981</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7504,6 +8076,9 @@
       <c r="I191" t="n">
         <v>553</v>
       </c>
+      <c r="J191" t="n">
+        <v>1981</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7541,6 +8116,9 @@
       <c r="I192" t="n">
         <v>123</v>
       </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7578,6 +8156,9 @@
       <c r="I193" t="n">
         <v>43</v>
       </c>
+      <c r="J193" t="n">
+        <v>1985</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7615,6 +8196,9 @@
       <c r="I194" t="n">
         <v>43</v>
       </c>
+      <c r="J194" t="n">
+        <v>1985</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7652,6 +8236,9 @@
       <c r="I195" t="n">
         <v>1281</v>
       </c>
+      <c r="J195" t="n">
+        <v>1990</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7689,6 +8276,9 @@
       <c r="I196" t="n">
         <v>1281</v>
       </c>
+      <c r="J196" t="n">
+        <v>1990</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7726,6 +8316,9 @@
       <c r="I197" t="n">
         <v>650</v>
       </c>
+      <c r="J197" t="n">
+        <v>1981</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7763,6 +8356,9 @@
       <c r="I198" t="n">
         <v>1431</v>
       </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7800,6 +8396,9 @@
       <c r="I199" t="n">
         <v>1176</v>
       </c>
+      <c r="J199" t="n">
+        <v>2004</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7837,6 +8436,9 @@
       <c r="I200" t="n">
         <v>135</v>
       </c>
+      <c r="J200" t="n">
+        <v>2009</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7874,6 +8476,9 @@
       <c r="I201" t="n">
         <v>135</v>
       </c>
+      <c r="J201" t="n">
+        <v>2009</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7911,6 +8516,9 @@
       <c r="I202" t="n">
         <v>544</v>
       </c>
+      <c r="J202" t="n">
+        <v>2005</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7948,6 +8556,9 @@
       <c r="I203" t="n">
         <v>597</v>
       </c>
+      <c r="J203" t="n">
+        <v>1984</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7985,6 +8596,9 @@
       <c r="I204" t="n">
         <v>597</v>
       </c>
+      <c r="J204" t="n">
+        <v>1984</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8022,6 +8636,9 @@
       <c r="I205" t="n">
         <v>597</v>
       </c>
+      <c r="J205" t="n">
+        <v>1984</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8059,6 +8676,9 @@
       <c r="I206" t="n">
         <v>597</v>
       </c>
+      <c r="J206" t="n">
+        <v>1984</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8096,6 +8716,9 @@
       <c r="I207" t="n">
         <v>440</v>
       </c>
+      <c r="J207" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8133,6 +8756,9 @@
       <c r="I208" t="n">
         <v>1225</v>
       </c>
+      <c r="J208" t="n">
+        <v>1986</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8170,6 +8796,9 @@
       <c r="I209" t="n">
         <v>1085</v>
       </c>
+      <c r="J209" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8207,6 +8836,9 @@
       <c r="I210" t="n">
         <v>1085</v>
       </c>
+      <c r="J210" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8244,6 +8876,9 @@
       <c r="I211" t="n">
         <v>230</v>
       </c>
+      <c r="J211" t="n">
+        <v>1978</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8281,6 +8916,9 @@
       <c r="I212" t="n">
         <v>1225</v>
       </c>
+      <c r="J212" t="n">
+        <v>1986</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8318,6 +8956,9 @@
       <c r="I213" t="n">
         <v>230</v>
       </c>
+      <c r="J213" t="n">
+        <v>1978</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8355,6 +8996,9 @@
       <c r="I214" t="n">
         <v>230</v>
       </c>
+      <c r="J214" t="n">
+        <v>1978</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8392,6 +9036,9 @@
       <c r="I215" t="n">
         <v>553</v>
       </c>
+      <c r="J215" t="n">
+        <v>1981</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8429,6 +9076,9 @@
       <c r="I216" t="n">
         <v>230</v>
       </c>
+      <c r="J216" t="n">
+        <v>1978</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8466,6 +9116,9 @@
       <c r="I217" t="n">
         <v>56</v>
       </c>
+      <c r="J217" t="n">
+        <v>1964</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8503,6 +9156,9 @@
       <c r="I218" t="n">
         <v>442</v>
       </c>
+      <c r="J218" t="n">
+        <v>1983</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8540,6 +9196,9 @@
       <c r="I219" t="n">
         <v>416</v>
       </c>
+      <c r="J219" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8577,6 +9236,9 @@
       <c r="I220" t="n">
         <v>416</v>
       </c>
+      <c r="J220" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8614,6 +9276,9 @@
       <c r="I221" t="n">
         <v>320</v>
       </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8651,6 +9316,9 @@
       <c r="I222" t="n">
         <v>650</v>
       </c>
+      <c r="J222" t="n">
+        <v>1981</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8688,6 +9356,9 @@
       <c r="I223" t="n">
         <v>442</v>
       </c>
+      <c r="J223" t="n">
+        <v>1983</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8725,6 +9396,9 @@
       <c r="I224" t="n">
         <v>416</v>
       </c>
+      <c r="J224" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8762,6 +9436,9 @@
       <c r="I225" t="n">
         <v>416</v>
       </c>
+      <c r="J225" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8799,6 +9476,9 @@
       <c r="I226" t="n">
         <v>1233</v>
       </c>
+      <c r="J226" t="n">
+        <v>1966</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8836,6 +9516,9 @@
       <c r="I227" t="n">
         <v>1005</v>
       </c>
+      <c r="J227" t="n">
+        <v>1950</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8873,6 +9556,9 @@
       <c r="I228" t="n">
         <v>1125</v>
       </c>
+      <c r="J228" t="n">
+        <v>1974</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8910,6 +9596,9 @@
       <c r="I229" t="n">
         <v>624</v>
       </c>
+      <c r="J229" t="n">
+        <v>1951</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8947,6 +9636,9 @@
       <c r="I230" t="n">
         <v>1001</v>
       </c>
+      <c r="J230" t="n">
+        <v>1963</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8984,6 +9676,9 @@
       <c r="I231" t="n">
         <v>1331</v>
       </c>
+      <c r="J231" t="n">
+        <v>1952</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9021,6 +9716,9 @@
       <c r="I232" t="n">
         <v>377</v>
       </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9058,6 +9756,9 @@
       <c r="I233" t="n">
         <v>1331</v>
       </c>
+      <c r="J233" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9095,6 +9796,9 @@
       <c r="I234" t="n">
         <v>119</v>
       </c>
+      <c r="J234" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9132,6 +9836,9 @@
       <c r="I235" t="n">
         <v>232</v>
       </c>
+      <c r="J235" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9169,6 +9876,9 @@
       <c r="I236" t="n">
         <v>119</v>
       </c>
+      <c r="J236" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9206,6 +9916,9 @@
       <c r="I237" t="n">
         <v>1359</v>
       </c>
+      <c r="J237" t="n">
+        <v>1983</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9243,6 +9956,9 @@
       <c r="I238" t="n">
         <v>1359</v>
       </c>
+      <c r="J238" t="n">
+        <v>1983</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9280,6 +9996,9 @@
       <c r="I239" t="n">
         <v>1352</v>
       </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9317,6 +10036,9 @@
       <c r="I240" t="n">
         <v>1352</v>
       </c>
+      <c r="J240" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9354,6 +10076,9 @@
       <c r="I241" t="n">
         <v>236</v>
       </c>
+      <c r="J241" t="n">
+        <v>1977</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9391,6 +10116,9 @@
       <c r="I242" t="n">
         <v>236</v>
       </c>
+      <c r="J242" t="n">
+        <v>1977</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9428,6 +10156,9 @@
       <c r="I243" t="n">
         <v>119</v>
       </c>
+      <c r="J243" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9465,6 +10196,9 @@
       <c r="I244" t="n">
         <v>119</v>
       </c>
+      <c r="J244" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9502,6 +10236,9 @@
       <c r="I245" t="n">
         <v>409</v>
       </c>
+      <c r="J245" t="n">
+        <v>1965</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9539,6 +10276,9 @@
       <c r="I246" t="n">
         <v>238</v>
       </c>
+      <c r="J246" t="n">
+        <v>1962</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9576,6 +10316,9 @@
       <c r="I247" t="n">
         <v>1359</v>
       </c>
+      <c r="J247" t="n">
+        <v>1983</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9613,6 +10356,9 @@
       <c r="I248" t="n">
         <v>122</v>
       </c>
+      <c r="J248" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9650,6 +10396,9 @@
       <c r="I249" t="n">
         <v>623</v>
       </c>
+      <c r="J249" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9687,6 +10436,9 @@
       <c r="I250" t="n">
         <v>1125</v>
       </c>
+      <c r="J250" t="n">
+        <v>1932</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9724,6 +10476,9 @@
       <c r="I251" t="n">
         <v>991</v>
       </c>
+      <c r="J251" t="n">
+        <v>1984</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9761,6 +10516,9 @@
       <c r="I252" t="n">
         <v>812</v>
       </c>
+      <c r="J252" t="n">
+        <v>1963</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9798,6 +10556,9 @@
       <c r="I253" t="n">
         <v>1007</v>
       </c>
+      <c r="J253" t="n">
+        <v>1974</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9835,6 +10596,9 @@
       <c r="I254" t="n">
         <v>441</v>
       </c>
+      <c r="J254" t="n">
+        <v>1965</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9872,6 +10636,9 @@
       <c r="I255" t="n">
         <v>96</v>
       </c>
+      <c r="J255" t="n">
+        <v>1985</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9909,6 +10676,9 @@
       <c r="I256" t="n">
         <v>1391</v>
       </c>
+      <c r="J256" t="n">
+        <v>1960</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9946,6 +10716,9 @@
       <c r="I257" t="n">
         <v>284</v>
       </c>
+      <c r="J257" t="n">
+        <v>1953</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9983,6 +10756,9 @@
       <c r="I258" t="n">
         <v>559</v>
       </c>
+      <c r="J258" t="n">
+        <v>1951</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10020,6 +10796,9 @@
       <c r="I259" t="n">
         <v>323</v>
       </c>
+      <c r="J259" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10057,6 +10836,9 @@
       <c r="I260" t="n">
         <v>323</v>
       </c>
+      <c r="J260" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10094,6 +10876,9 @@
       <c r="I261" t="n">
         <v>1176</v>
       </c>
+      <c r="J261" t="n">
+        <v>2004</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10131,6 +10916,9 @@
       <c r="I262" t="n">
         <v>323</v>
       </c>
+      <c r="J262" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10168,6 +10956,9 @@
       <c r="I263" t="n">
         <v>323</v>
       </c>
+      <c r="J263" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10205,6 +10996,9 @@
       <c r="I264" t="n">
         <v>653</v>
       </c>
+      <c r="J264" t="n">
+        <v>1990</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10242,6 +11036,9 @@
       <c r="I265" t="n">
         <v>320</v>
       </c>
+      <c r="J265" t="n">
+        <v>1984</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10279,6 +11076,9 @@
       <c r="I266" t="n">
         <v>440</v>
       </c>
+      <c r="J266" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10316,6 +11116,9 @@
       <c r="I267" t="n">
         <v>323</v>
       </c>
+      <c r="J267" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10353,6 +11156,9 @@
       <c r="I268" t="n">
         <v>323</v>
       </c>
+      <c r="J268" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10390,6 +11196,9 @@
       <c r="I269" t="n">
         <v>829</v>
       </c>
+      <c r="J269" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10427,6 +11236,9 @@
       <c r="I270" t="n">
         <v>240</v>
       </c>
+      <c r="J270" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10464,6 +11276,9 @@
       <c r="I271" t="n">
         <v>653</v>
       </c>
+      <c r="J271" t="n">
+        <v>1990</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10501,6 +11316,9 @@
       <c r="I272" t="n">
         <v>446</v>
       </c>
+      <c r="J272" t="n">
+        <v>1958</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10538,6 +11356,9 @@
       <c r="I273" t="n">
         <v>96</v>
       </c>
+      <c r="J273" t="n">
+        <v>1985</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10575,6 +11396,9 @@
       <c r="I274" t="n">
         <v>446</v>
       </c>
+      <c r="J274" t="n">
+        <v>1958</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10612,6 +11436,9 @@
       <c r="I275" t="n">
         <v>446</v>
       </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10649,6 +11476,9 @@
       <c r="I276" t="n">
         <v>293</v>
       </c>
+      <c r="J276" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10686,6 +11516,9 @@
       <c r="I277" t="n">
         <v>645</v>
       </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10723,6 +11556,9 @@
       <c r="I278" t="n">
         <v>293</v>
       </c>
+      <c r="J278" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10760,6 +11596,9 @@
       <c r="I279" t="n">
         <v>1140</v>
       </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10797,6 +11636,9 @@
       <c r="I280" t="n">
         <v>99</v>
       </c>
+      <c r="J280" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10834,6 +11676,9 @@
       <c r="I281" t="n">
         <v>896</v>
       </c>
+      <c r="J281" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10871,6 +11716,9 @@
       <c r="I282" t="n">
         <v>654</v>
       </c>
+      <c r="J282" t="n">
+        <v>1952</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10908,6 +11756,9 @@
       <c r="I283" t="n">
         <v>257</v>
       </c>
+      <c r="J283" t="n">
+        <v>1950</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10945,6 +11796,9 @@
       <c r="I284" t="n">
         <v>1434</v>
       </c>
+      <c r="J284" t="n">
+        <v>1958</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10982,6 +11836,9 @@
       <c r="I285" t="n">
         <v>1284</v>
       </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11019,6 +11876,9 @@
       <c r="I286" t="n">
         <v>99</v>
       </c>
+      <c r="J286" t="n">
+        <v>1967</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11056,6 +11916,9 @@
       <c r="I287" t="n">
         <v>386</v>
       </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11093,6 +11956,9 @@
       <c r="I288" t="n">
         <v>376</v>
       </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11130,6 +11996,9 @@
       <c r="I289" t="n">
         <v>101</v>
       </c>
+      <c r="J289" t="n">
+        <v>1956</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11167,6 +12036,9 @@
       <c r="I290" t="n">
         <v>1365</v>
       </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11204,6 +12076,9 @@
       <c r="I291" t="n">
         <v>214</v>
       </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11241,6 +12116,9 @@
       <c r="I292" t="n">
         <v>1409</v>
       </c>
+      <c r="J292" t="n">
+        <v>2008</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11278,6 +12156,9 @@
       <c r="I293" t="n">
         <v>1409</v>
       </c>
+      <c r="J293" t="n">
+        <v>2008</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11315,6 +12196,9 @@
       <c r="I294" t="n">
         <v>1409</v>
       </c>
+      <c r="J294" t="n">
+        <v>2008</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11352,6 +12236,9 @@
       <c r="I295" t="n">
         <v>229</v>
       </c>
+      <c r="J295" t="n">
+        <v>1994</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11389,6 +12276,9 @@
       <c r="I296" t="n">
         <v>1225</v>
       </c>
+      <c r="J296" t="n">
+        <v>1986</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11426,6 +12316,9 @@
       <c r="I297" t="n">
         <v>645</v>
       </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11463,6 +12356,9 @@
       <c r="I298" t="n">
         <v>946</v>
       </c>
+      <c r="J298" t="n">
+        <v>1967</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11500,6 +12396,9 @@
       <c r="I299" t="n">
         <v>298</v>
       </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11537,6 +12436,9 @@
       <c r="I300" t="n">
         <v>304</v>
       </c>
+      <c r="J300" t="n">
+        <v>1951</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11574,6 +12476,9 @@
       <c r="I301" t="n">
         <v>298</v>
       </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11611,6 +12516,9 @@
       <c r="I302" t="n">
         <v>304</v>
       </c>
+      <c r="J302" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11648,6 +12556,9 @@
       <c r="I303" t="n">
         <v>47</v>
       </c>
+      <c r="J303" t="n">
+        <v>1936</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11685,6 +12596,9 @@
       <c r="I304" t="n">
         <v>991</v>
       </c>
+      <c r="J304" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11722,6 +12636,9 @@
       <c r="I305" t="n">
         <v>833</v>
       </c>
+      <c r="J305" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11759,6 +12676,9 @@
       <c r="I306" t="n">
         <v>716</v>
       </c>
+      <c r="J306" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11796,6 +12716,9 @@
       <c r="I307" t="n">
         <v>938</v>
       </c>
+      <c r="J307" t="n">
+        <v>1948</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11833,6 +12756,9 @@
       <c r="I308" t="n">
         <v>956</v>
       </c>
+      <c r="J308" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11870,6 +12796,9 @@
       <c r="I309" t="n">
         <v>203</v>
       </c>
+      <c r="J309" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11907,6 +12836,9 @@
       <c r="I310" t="n">
         <v>869</v>
       </c>
+      <c r="J310" t="n">
+        <v>1952</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11944,6 +12876,9 @@
       <c r="I311" t="n">
         <v>237</v>
       </c>
+      <c r="J311" t="n">
+        <v>1957</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11981,6 +12916,9 @@
       <c r="I312" t="n">
         <v>540</v>
       </c>
+      <c r="J312" t="n">
+        <v>1960</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12018,6 +12956,9 @@
       <c r="I313" t="n">
         <v>386</v>
       </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12055,6 +12996,9 @@
       <c r="I314" t="n">
         <v>624</v>
       </c>
+      <c r="J314" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12092,6 +13036,9 @@
       <c r="I315" t="n">
         <v>625</v>
       </c>
+      <c r="J315" t="n">
+        <v>1970</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12129,6 +13076,9 @@
       <c r="I316" t="n">
         <v>377</v>
       </c>
+      <c r="J316" t="n">
+        <v>1973</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12166,6 +13116,9 @@
       <c r="I317" t="n">
         <v>365</v>
       </c>
+      <c r="J317" t="n">
+        <v>1946</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12203,6 +13156,9 @@
       <c r="I318" t="n">
         <v>386</v>
       </c>
+      <c r="J318" t="n">
+        <v>1966</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12240,6 +13196,9 @@
       <c r="I319" t="n">
         <v>1181</v>
       </c>
+      <c r="J319" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12277,6 +13236,9 @@
       <c r="I320" t="n">
         <v>626</v>
       </c>
+      <c r="J320" t="n">
+        <v>1977</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12314,6 +13276,9 @@
       <c r="I321" t="n">
         <v>1494</v>
       </c>
+      <c r="J321" t="n">
+        <v>1984</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12351,6 +13316,9 @@
       <c r="I322" t="n">
         <v>257</v>
       </c>
+      <c r="J322" t="n">
+        <v>1983</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12388,6 +13356,9 @@
       <c r="I323" t="n">
         <v>850</v>
       </c>
+      <c r="J323" t="n">
+        <v>1986</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12425,6 +13396,9 @@
       <c r="I324" t="n">
         <v>1219</v>
       </c>
+      <c r="J324" t="n">
+        <v>1974</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12462,6 +13436,9 @@
       <c r="I325" t="n">
         <v>1440</v>
       </c>
+      <c r="J325" t="n">
+        <v>1968</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12499,6 +13476,9 @@
       <c r="I326" t="n">
         <v>1440</v>
       </c>
+      <c r="J326" t="n">
+        <v>1963</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12536,6 +13516,9 @@
       <c r="I327" t="n">
         <v>1494</v>
       </c>
+      <c r="J327" t="n">
+        <v>1982</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12573,6 +13556,9 @@
       <c r="I328" t="n">
         <v>1456</v>
       </c>
+      <c r="J328" t="n">
+        <v>1997</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12610,6 +13596,9 @@
       <c r="I329" t="n">
         <v>1456</v>
       </c>
+      <c r="J329" t="n">
+        <v>1997</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12647,6 +13636,9 @@
       <c r="I330" t="n">
         <v>603</v>
       </c>
+      <c r="J330" t="n">
+        <v>1996</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12684,6 +13676,9 @@
       <c r="I331" t="n">
         <v>692</v>
       </c>
+      <c r="J331" t="n">
+        <v>1971</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12721,6 +13716,9 @@
       <c r="I332" t="n">
         <v>540</v>
       </c>
+      <c r="J332" t="n">
+        <v>1960</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12758,6 +13756,9 @@
       <c r="I333" t="n">
         <v>626</v>
       </c>
+      <c r="J333" t="n">
+        <v>1977</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12795,6 +13796,9 @@
       <c r="I334" t="n">
         <v>1359</v>
       </c>
+      <c r="J334" t="n">
+        <v>1983</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12832,6 +13836,9 @@
       <c r="I335" t="n">
         <v>692</v>
       </c>
+      <c r="J335" t="n">
+        <v>1971</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12869,6 +13876,9 @@
       <c r="I336" t="n">
         <v>1326</v>
       </c>
+      <c r="J336" t="n">
+        <v>1982</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12906,6 +13916,9 @@
       <c r="I337" t="n">
         <v>1225</v>
       </c>
+      <c r="J337" t="n">
+        <v>1986</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12943,6 +13956,9 @@
       <c r="I338" t="n">
         <v>603</v>
       </c>
+      <c r="J338" t="n">
+        <v>1996</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12980,6 +13996,9 @@
       <c r="I339" t="n">
         <v>1326</v>
       </c>
+      <c r="J339" t="n">
+        <v>1982</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13017,6 +14036,9 @@
       <c r="I340" t="n">
         <v>1326</v>
       </c>
+      <c r="J340" t="n">
+        <v>1982</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13054,6 +14076,9 @@
       <c r="I341" t="n">
         <v>1326</v>
       </c>
+      <c r="J341" t="n">
+        <v>1982</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13091,6 +14116,9 @@
       <c r="I342" t="n">
         <v>549</v>
       </c>
+      <c r="J342" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13128,6 +14156,9 @@
       <c r="I343" t="n">
         <v>494</v>
       </c>
+      <c r="J343" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13165,6 +14196,9 @@
       <c r="I344" t="n">
         <v>1263</v>
       </c>
+      <c r="J344" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13202,6 +14236,9 @@
       <c r="I345" t="n">
         <v>1263</v>
       </c>
+      <c r="J345" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13239,6 +14276,9 @@
       <c r="I346" t="n">
         <v>338</v>
       </c>
+      <c r="J346" t="n">
+        <v>1968</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13276,6 +14316,9 @@
       <c r="I347" t="n">
         <v>1434</v>
       </c>
+      <c r="J347" t="n">
+        <v>1961</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13313,6 +14356,9 @@
       <c r="I348" t="n">
         <v>1415</v>
       </c>
+      <c r="J348" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13350,6 +14396,9 @@
       <c r="I349" t="n">
         <v>365</v>
       </c>
+      <c r="J349" t="n">
+        <v>1951</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13387,6 +14436,9 @@
       <c r="I350" t="n">
         <v>236</v>
       </c>
+      <c r="J350" t="n">
+        <v>1956</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13424,6 +14476,9 @@
       <c r="I351" t="n">
         <v>1443</v>
       </c>
+      <c r="J351" t="n">
+        <v>1968</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13461,6 +14516,9 @@
       <c r="I352" t="n">
         <v>1431</v>
       </c>
+      <c r="J352" t="n">
+        <v>1997</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13498,6 +14556,9 @@
       <c r="I353" t="n">
         <v>1431</v>
       </c>
+      <c r="J353" t="n">
+        <v>1997</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13535,6 +14596,9 @@
       <c r="I354" t="n">
         <v>189</v>
       </c>
+      <c r="J354" t="n">
+        <v>1965</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13572,6 +14636,9 @@
       <c r="I355" t="n">
         <v>293</v>
       </c>
+      <c r="J355" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13609,6 +14676,9 @@
       <c r="I356" t="n">
         <v>502</v>
       </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13646,6 +14716,9 @@
       <c r="I357" t="n">
         <v>501</v>
       </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13683,6 +14756,9 @@
       <c r="I358" t="n">
         <v>1111</v>
       </c>
+      <c r="J358" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13720,6 +14796,9 @@
       <c r="I359" t="n">
         <v>501</v>
       </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13757,6 +14836,9 @@
       <c r="I360" t="n">
         <v>1169</v>
       </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13794,6 +14876,9 @@
       <c r="I361" t="n">
         <v>501</v>
       </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13831,6 +14916,9 @@
       <c r="I362" t="n">
         <v>151</v>
       </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -13868,6 +14956,9 @@
       <c r="I363" t="n">
         <v>561</v>
       </c>
+      <c r="J363" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -13905,6 +14996,9 @@
       <c r="I364" t="n">
         <v>151</v>
       </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -13942,6 +15036,9 @@
       <c r="I365" t="n">
         <v>561</v>
       </c>
+      <c r="J365" t="n">
+        <v>2004</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -13979,6 +15076,9 @@
       <c r="I366" t="n">
         <v>1315</v>
       </c>
+      <c r="J366" t="n">
+        <v>2007</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -14016,6 +15116,9 @@
       <c r="I367" t="n">
         <v>501</v>
       </c>
+      <c r="J367" t="n">
+        <v>1994</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -14053,6 +15156,9 @@
       <c r="I368" t="n">
         <v>501</v>
       </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -14090,6 +15196,9 @@
       <c r="I369" t="n">
         <v>835</v>
       </c>
+      <c r="J369" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -14127,6 +15236,9 @@
       <c r="I370" t="n">
         <v>1111</v>
       </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -14164,6 +15276,9 @@
       <c r="I371" t="n">
         <v>1022</v>
       </c>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -14201,6 +15316,9 @@
       <c r="I372" t="n">
         <v>937</v>
       </c>
+      <c r="J372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -14238,6 +15356,9 @@
       <c r="I373" t="n">
         <v>618</v>
       </c>
+      <c r="J373" t="n">
+        <v>1983</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -14275,6 +15396,9 @@
       <c r="I374" t="n">
         <v>86</v>
       </c>
+      <c r="J374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -14312,6 +15436,9 @@
       <c r="I375" t="n">
         <v>501</v>
       </c>
+      <c r="J375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -14349,6 +15476,9 @@
       <c r="I376" t="n">
         <v>213</v>
       </c>
+      <c r="J376" t="n">
+        <v>1969</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -14386,6 +15516,9 @@
       <c r="I377" t="n">
         <v>1111</v>
       </c>
+      <c r="J377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -14423,6 +15556,9 @@
       <c r="I378" t="n">
         <v>151</v>
       </c>
+      <c r="J378" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -14460,6 +15596,9 @@
       <c r="I379" t="n">
         <v>561</v>
       </c>
+      <c r="J379" t="n">
+        <v>2002</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -14497,6 +15636,9 @@
       <c r="I380" t="n">
         <v>561</v>
       </c>
+      <c r="J380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -14534,6 +15676,9 @@
       <c r="I381" t="n">
         <v>1164</v>
       </c>
+      <c r="J381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -14571,6 +15716,9 @@
       <c r="I382" t="n">
         <v>561</v>
       </c>
+      <c r="J382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -14608,6 +15756,9 @@
       <c r="I383" t="n">
         <v>1169</v>
       </c>
+      <c r="J383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -14645,6 +15796,9 @@
       <c r="I384" t="n">
         <v>561</v>
       </c>
+      <c r="J384" t="n">
+        <v>2006</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -14682,6 +15836,9 @@
       <c r="I385" t="n">
         <v>1343</v>
       </c>
+      <c r="J385" t="n">
+        <v>2008</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -14719,6 +15876,9 @@
       <c r="I386" t="n">
         <v>1343</v>
       </c>
+      <c r="J386" t="n">
+        <v>2008</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -14756,6 +15916,9 @@
       <c r="I387" t="n">
         <v>733</v>
       </c>
+      <c r="J387" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -14793,6 +15956,9 @@
       <c r="I388" t="n">
         <v>76</v>
       </c>
+      <c r="J388" t="n">
+        <v>1989</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -14830,6 +15996,9 @@
       <c r="I389" t="n">
         <v>1381</v>
       </c>
+      <c r="J389" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -14867,6 +16036,9 @@
       <c r="I390" t="n">
         <v>733</v>
       </c>
+      <c r="J390" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -14904,6 +16076,9 @@
       <c r="I391" t="n">
         <v>733</v>
       </c>
+      <c r="J391" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -14941,6 +16116,9 @@
       <c r="I392" t="n">
         <v>733</v>
       </c>
+      <c r="J392" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -14978,6 +16156,9 @@
       <c r="I393" t="n">
         <v>733</v>
       </c>
+      <c r="J393" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -15015,6 +16196,9 @@
       <c r="I394" t="n">
         <v>733</v>
       </c>
+      <c r="J394" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -15052,6 +16236,9 @@
       <c r="I395" t="n">
         <v>1381</v>
       </c>
+      <c r="J395" t="n">
+        <v>2019</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -15089,6 +16276,9 @@
       <c r="I396" t="n">
         <v>1343</v>
       </c>
+      <c r="J396" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -15126,6 +16316,9 @@
       <c r="I397" t="n">
         <v>721</v>
       </c>
+      <c r="J397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -15163,6 +16356,9 @@
       <c r="I398" t="n">
         <v>676</v>
       </c>
+      <c r="J398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -15200,6 +16396,9 @@
       <c r="I399" t="n">
         <v>346</v>
       </c>
+      <c r="J399" t="n">
+        <v>1981</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -15237,6 +16436,9 @@
       <c r="I400" t="n">
         <v>333</v>
       </c>
+      <c r="J400" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -15274,6 +16476,9 @@
       <c r="I401" t="n">
         <v>333</v>
       </c>
+      <c r="J401" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -15311,6 +16516,9 @@
       <c r="I402" t="n">
         <v>1156</v>
       </c>
+      <c r="J402" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -15348,6 +16556,9 @@
       <c r="I403" t="n">
         <v>733</v>
       </c>
+      <c r="J403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -15385,6 +16596,9 @@
       <c r="I404" t="n">
         <v>1343</v>
       </c>
+      <c r="J404" t="n">
+        <v>2004</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -15422,6 +16636,9 @@
       <c r="I405" t="n">
         <v>1363</v>
       </c>
+      <c r="J405" t="n">
+        <v>1997</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -15459,6 +16676,9 @@
       <c r="I406" t="n">
         <v>354</v>
       </c>
+      <c r="J406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -15496,6 +16716,9 @@
       <c r="I407" t="n">
         <v>58</v>
       </c>
+      <c r="J407" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -15533,6 +16756,9 @@
       <c r="I408" t="n">
         <v>676</v>
       </c>
+      <c r="J408" t="n">
+        <v>2016</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -15570,6 +16796,9 @@
       <c r="I409" t="n">
         <v>296</v>
       </c>
+      <c r="J409" t="n">
+        <v>1982</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -15607,6 +16836,9 @@
       <c r="I410" t="n">
         <v>1156</v>
       </c>
+      <c r="J410" t="n">
+        <v>1973</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -15644,6 +16876,9 @@
       <c r="I411" t="n">
         <v>676</v>
       </c>
+      <c r="J411" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -15681,6 +16916,9 @@
       <c r="I412" t="n">
         <v>1156</v>
       </c>
+      <c r="J412" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -15718,6 +16956,9 @@
       <c r="I413" t="n">
         <v>1311</v>
       </c>
+      <c r="J413" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -15755,6 +16996,9 @@
       <c r="I414" t="n">
         <v>1156</v>
       </c>
+      <c r="J414" t="n">
+        <v>1998</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -15792,6 +17036,9 @@
       <c r="I415" t="n">
         <v>76</v>
       </c>
+      <c r="J415" t="n">
+        <v>1995</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -15829,6 +17076,9 @@
       <c r="I416" t="n">
         <v>903</v>
       </c>
+      <c r="J416" t="n">
+        <v>1995</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -15866,6 +17116,9 @@
       <c r="I417" t="n">
         <v>1414</v>
       </c>
+      <c r="J417" t="n">
+        <v>1984</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -15903,6 +17156,9 @@
       <c r="I418" t="n">
         <v>1059</v>
       </c>
+      <c r="J418" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -15940,6 +17196,9 @@
       <c r="I419" t="n">
         <v>245</v>
       </c>
+      <c r="J419" t="n">
+        <v>1982</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -15977,6 +17236,9 @@
       <c r="I420" t="n">
         <v>1492</v>
       </c>
+      <c r="J420" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -16014,6 +17276,9 @@
       <c r="I421" t="n">
         <v>997</v>
       </c>
+      <c r="J421" t="n">
+        <v>1960</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -16051,6 +17316,9 @@
       <c r="I422" t="n">
         <v>179</v>
       </c>
+      <c r="J422" t="n">
+        <v>1953</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -16088,6 +17356,9 @@
       <c r="I423" t="n">
         <v>1270</v>
       </c>
+      <c r="J423" t="n">
+        <v>1985</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -16125,6 +17396,9 @@
       <c r="I424" t="n">
         <v>1158</v>
       </c>
+      <c r="J424" t="n">
+        <v>1963</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -16162,6 +17436,9 @@
       <c r="I425" t="n">
         <v>328</v>
       </c>
+      <c r="J425" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -16199,6 +17476,9 @@
       <c r="I426" t="n">
         <v>911</v>
       </c>
+      <c r="J426" t="n">
+        <v>1977</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -16236,6 +17516,9 @@
       <c r="I427" t="n">
         <v>911</v>
       </c>
+      <c r="J427" t="n">
+        <v>1977</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -16273,6 +17556,9 @@
       <c r="I428" t="n">
         <v>500</v>
       </c>
+      <c r="J428" t="n">
+        <v>2003</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -16310,6 +17596,9 @@
       <c r="I429" t="n">
         <v>1419</v>
       </c>
+      <c r="J429" t="n">
+        <v>1963</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -16347,6 +17636,9 @@
       <c r="I430" t="n">
         <v>1338</v>
       </c>
+      <c r="J430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -16384,6 +17676,9 @@
       <c r="I431" t="n">
         <v>555</v>
       </c>
+      <c r="J431" t="n">
+        <v>1983</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -16421,6 +17716,9 @@
       <c r="I432" t="n">
         <v>117</v>
       </c>
+      <c r="J432" t="n">
+        <v>1971</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -16458,6 +17756,9 @@
       <c r="I433" t="n">
         <v>508</v>
       </c>
+      <c r="J433" t="n">
+        <v>1993</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -16495,6 +17796,9 @@
       <c r="I434" t="n">
         <v>1035</v>
       </c>
+      <c r="J434" t="n">
+        <v>1970</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -16532,6 +17836,9 @@
       <c r="I435" t="n">
         <v>1189</v>
       </c>
+      <c r="J435" t="n">
+        <v>1999</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -16569,6 +17876,9 @@
       <c r="I436" t="n">
         <v>1270</v>
       </c>
+      <c r="J436" t="n">
+        <v>1985</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -16606,6 +17916,9 @@
       <c r="I437" t="n">
         <v>759</v>
       </c>
+      <c r="J437" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -16643,6 +17956,9 @@
       <c r="I438" t="n">
         <v>1507</v>
       </c>
+      <c r="J438" t="n">
+        <v>1968</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -16680,6 +17996,9 @@
       <c r="I439" t="n">
         <v>1385</v>
       </c>
+      <c r="J439" t="n">
+        <v>1974</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -16717,6 +18036,9 @@
       <c r="I440" t="n">
         <v>142</v>
       </c>
+      <c r="J440" t="n">
+        <v>1972</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -16754,6 +18076,9 @@
       <c r="I441" t="n">
         <v>862</v>
       </c>
+      <c r="J441" t="n">
+        <v>1955</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -16791,6 +18116,9 @@
       <c r="I442" t="n">
         <v>1371</v>
       </c>
+      <c r="J442" t="n">
+        <v>1977</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -16828,6 +18156,9 @@
       <c r="I443" t="n">
         <v>184</v>
       </c>
+      <c r="J443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -16865,6 +18196,9 @@
       <c r="I444" t="n">
         <v>1371</v>
       </c>
+      <c r="J444" t="n">
+        <v>1977</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -16902,6 +18236,9 @@
       <c r="I445" t="n">
         <v>490</v>
       </c>
+      <c r="J445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -16939,6 +18276,9 @@
       <c r="I446" t="n">
         <v>1417</v>
       </c>
+      <c r="J446" t="n">
+        <v>2002</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -16976,6 +18316,9 @@
       <c r="I447" t="n">
         <v>740</v>
       </c>
+      <c r="J447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -17013,6 +18356,9 @@
       <c r="I448" t="n">
         <v>1303</v>
       </c>
+      <c r="J448" t="n">
+        <v>1969</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -17050,6 +18396,9 @@
       <c r="I449" t="n">
         <v>168</v>
       </c>
+      <c r="J449" t="n">
+        <v>1972</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -17087,6 +18436,9 @@
       <c r="I450" t="n">
         <v>397</v>
       </c>
+      <c r="J450" t="n">
+        <v>1999</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -17124,6 +18476,9 @@
       <c r="I451" t="n">
         <v>1175</v>
       </c>
+      <c r="J451" t="n">
+        <v>1961</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -17161,6 +18516,9 @@
       <c r="I452" t="n">
         <v>490</v>
       </c>
+      <c r="J452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -17198,6 +18556,9 @@
       <c r="I453" t="n">
         <v>1103</v>
       </c>
+      <c r="J453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -17235,6 +18596,9 @@
       <c r="I454" t="n">
         <v>1358</v>
       </c>
+      <c r="J454" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -17272,6 +18636,9 @@
       <c r="I455" t="n">
         <v>115</v>
       </c>
+      <c r="J455" t="n">
+        <v>1971</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -17309,6 +18676,9 @@
       <c r="I456" t="n">
         <v>1296</v>
       </c>
+      <c r="J456" t="n">
+        <v>2004</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -17346,6 +18716,9 @@
       <c r="I457" t="n">
         <v>1103</v>
       </c>
+      <c r="J457" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -17383,6 +18756,9 @@
       <c r="I458" t="n">
         <v>723</v>
       </c>
+      <c r="J458" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -17420,6 +18796,9 @@
       <c r="I459" t="n">
         <v>1156</v>
       </c>
+      <c r="J459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -17457,6 +18836,9 @@
       <c r="I460" t="n">
         <v>1371</v>
       </c>
+      <c r="J460" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -17494,6 +18876,9 @@
       <c r="I461" t="n">
         <v>314</v>
       </c>
+      <c r="J461" t="n">
+        <v>1961</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -17531,6 +18916,9 @@
       <c r="I462" t="n">
         <v>1436</v>
       </c>
+      <c r="J462" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -17568,6 +18956,9 @@
       <c r="I463" t="n">
         <v>862</v>
       </c>
+      <c r="J463" t="n">
+        <v>1970</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -17605,6 +18996,9 @@
       <c r="I464" t="n">
         <v>328</v>
       </c>
+      <c r="J464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -17642,6 +19036,9 @@
       <c r="I465" t="n">
         <v>316</v>
       </c>
+      <c r="J465" t="n">
+        <v>1966</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -17679,6 +19076,9 @@
       <c r="I466" t="n">
         <v>911</v>
       </c>
+      <c r="J466" t="n">
+        <v>1977</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -17716,6 +19116,9 @@
       <c r="I467" t="n">
         <v>1355</v>
       </c>
+      <c r="J467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -17753,6 +19156,9 @@
       <c r="I468" t="n">
         <v>1156</v>
       </c>
+      <c r="J468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -17790,6 +19196,9 @@
       <c r="I469" t="n">
         <v>231</v>
       </c>
+      <c r="J469" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -17827,6 +19236,9 @@
       <c r="I470" t="n">
         <v>723</v>
       </c>
+      <c r="J470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -17864,6 +19276,9 @@
       <c r="I471" t="n">
         <v>192</v>
       </c>
+      <c r="J471" t="n">
+        <v>1978</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -17901,6 +19316,9 @@
       <c r="I472" t="n">
         <v>439</v>
       </c>
+      <c r="J472" t="n">
+        <v>1958</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -17938,6 +19356,9 @@
       <c r="I473" t="n">
         <v>184</v>
       </c>
+      <c r="J473" t="n">
+        <v>1971</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -17975,6 +19396,9 @@
       <c r="I474" t="n">
         <v>317</v>
       </c>
+      <c r="J474" t="n">
+        <v>1959</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -18012,6 +19436,9 @@
       <c r="I475" t="n">
         <v>942</v>
       </c>
+      <c r="J475" t="n">
+        <v>2003</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -18049,6 +19476,9 @@
       <c r="I476" t="n">
         <v>734</v>
       </c>
+      <c r="J476" t="n">
+        <v>2003</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -18086,6 +19516,9 @@
       <c r="I477" t="n">
         <v>1309</v>
       </c>
+      <c r="J477" t="n">
+        <v>1958</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -18123,6 +19556,9 @@
       <c r="I478" t="n">
         <v>168</v>
       </c>
+      <c r="J478" t="n">
+        <v>1972</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -18160,6 +19596,9 @@
       <c r="I479" t="n">
         <v>430</v>
       </c>
+      <c r="J479" t="n">
+        <v>1957</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -18197,6 +19636,9 @@
       <c r="I480" t="n">
         <v>759</v>
       </c>
+      <c r="J480" t="n">
+        <v>1970</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -18234,6 +19676,9 @@
       <c r="I481" t="n">
         <v>75</v>
       </c>
+      <c r="J481" t="n">
+        <v>2008</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -18271,6 +19716,9 @@
       <c r="I482" t="n">
         <v>1296</v>
       </c>
+      <c r="J482" t="n">
+        <v>1936</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -18308,6 +19756,9 @@
       <c r="I483" t="n">
         <v>414</v>
       </c>
+      <c r="J483" t="n">
+        <v>1981</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -18345,6 +19796,9 @@
       <c r="I484" t="n">
         <v>397</v>
       </c>
+      <c r="J484" t="n">
+        <v>1999</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -18382,6 +19836,9 @@
       <c r="I485" t="n">
         <v>75</v>
       </c>
+      <c r="J485" t="n">
+        <v>2008</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -18419,6 +19876,9 @@
       <c r="I486" t="n">
         <v>64</v>
       </c>
+      <c r="J486" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -18456,6 +19916,9 @@
       <c r="I487" t="n">
         <v>45</v>
       </c>
+      <c r="J487" t="n">
+        <v>1961</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -18493,6 +19956,9 @@
       <c r="I488" t="n">
         <v>154</v>
       </c>
+      <c r="J488" t="n">
+        <v>1966</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -18530,6 +19996,9 @@
       <c r="I489" t="n">
         <v>748</v>
       </c>
+      <c r="J489" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -18567,6 +20036,9 @@
       <c r="I490" t="n">
         <v>748</v>
       </c>
+      <c r="J490" t="n">
+        <v>1982</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -18604,6 +20076,9 @@
       <c r="I491" t="n">
         <v>72</v>
       </c>
+      <c r="J491" t="n">
+        <v>1973</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -18641,6 +20116,9 @@
       <c r="I492" t="n">
         <v>185</v>
       </c>
+      <c r="J492" t="n">
+        <v>1972</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -18678,6 +20156,9 @@
       <c r="I493" t="n">
         <v>210</v>
       </c>
+      <c r="J493" t="n">
+        <v>1986</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -18715,6 +20196,9 @@
       <c r="I494" t="n">
         <v>912</v>
       </c>
+      <c r="J494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -18752,6 +20236,9 @@
       <c r="I495" t="n">
         <v>1083</v>
       </c>
+      <c r="J495" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -18789,6 +20276,9 @@
       <c r="I496" t="n">
         <v>185</v>
       </c>
+      <c r="J496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -18826,6 +20316,9 @@
       <c r="I497" t="n">
         <v>72</v>
       </c>
+      <c r="J497" t="n">
+        <v>1973</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -18863,6 +20356,9 @@
       <c r="I498" t="n">
         <v>1495</v>
       </c>
+      <c r="J498" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -18900,6 +20396,9 @@
       <c r="I499" t="n">
         <v>275</v>
       </c>
+      <c r="J499" t="n">
+        <v>1996</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -18937,6 +20436,9 @@
       <c r="I500" t="n">
         <v>693</v>
       </c>
+      <c r="J500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -18974,6 +20476,9 @@
       <c r="I501" t="n">
         <v>72</v>
       </c>
+      <c r="J501" t="n">
+        <v>1963</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -19011,6 +20516,9 @@
       <c r="I502" t="n">
         <v>1254</v>
       </c>
+      <c r="J502" t="n">
+        <v>1964</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -19048,6 +20556,9 @@
       <c r="I503" t="n">
         <v>461</v>
       </c>
+      <c r="J503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -19085,6 +20596,9 @@
       <c r="I504" t="n">
         <v>1402</v>
       </c>
+      <c r="J504" t="n">
+        <v>1965</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -19122,6 +20636,9 @@
       <c r="I505" t="n">
         <v>672</v>
       </c>
+      <c r="J505" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -19159,6 +20676,9 @@
       <c r="I506" t="n">
         <v>693</v>
       </c>
+      <c r="J506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -19196,6 +20716,9 @@
       <c r="I507" t="n">
         <v>1474</v>
       </c>
+      <c r="J507" t="n">
+        <v>1995</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -19233,6 +20756,9 @@
       <c r="I508" t="n">
         <v>91</v>
       </c>
+      <c r="J508" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -19270,6 +20796,9 @@
       <c r="I509" t="n">
         <v>1402</v>
       </c>
+      <c r="J509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -19307,6 +20836,9 @@
       <c r="I510" t="n">
         <v>1402</v>
       </c>
+      <c r="J510" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -19344,6 +20876,9 @@
       <c r="I511" t="n">
         <v>730</v>
       </c>
+      <c r="J511" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -19381,6 +20916,9 @@
       <c r="I512" t="n">
         <v>1469</v>
       </c>
+      <c r="J512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -19418,6 +20956,9 @@
       <c r="I513" t="n">
         <v>1245</v>
       </c>
+      <c r="J513" t="n">
+        <v>1975</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -19455,6 +20996,9 @@
       <c r="I514" t="n">
         <v>462</v>
       </c>
+      <c r="J514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -19492,6 +21036,9 @@
       <c r="I515" t="n">
         <v>526</v>
       </c>
+      <c r="J515" t="n">
+        <v>1966</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -19529,6 +21076,9 @@
       <c r="I516" t="n">
         <v>1324</v>
       </c>
+      <c r="J516" t="n">
+        <v>2009</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -19566,6 +21116,9 @@
       <c r="I517" t="n">
         <v>1187</v>
       </c>
+      <c r="J517" t="n">
+        <v>1978</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -19603,6 +21156,9 @@
       <c r="I518" t="n">
         <v>1187</v>
       </c>
+      <c r="J518" t="n">
+        <v>1969</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -19640,6 +21196,9 @@
       <c r="I519" t="n">
         <v>1245</v>
       </c>
+      <c r="J519" t="n">
+        <v>1983</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -19677,6 +21236,9 @@
       <c r="I520" t="n">
         <v>947</v>
       </c>
+      <c r="J520" t="n">
+        <v>1985</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -19714,6 +21276,9 @@
       <c r="I521" t="n">
         <v>61</v>
       </c>
+      <c r="J521" t="n">
+        <v>1965</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -19751,6 +21316,9 @@
       <c r="I522" t="n">
         <v>1265</v>
       </c>
+      <c r="J522" t="n">
+        <v>1982</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -19788,6 +21356,9 @@
       <c r="I523" t="n">
         <v>1047</v>
       </c>
+      <c r="J523" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -19825,6 +21396,9 @@
       <c r="I524" t="n">
         <v>932</v>
       </c>
+      <c r="J524" t="n">
+        <v>1957</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -19862,6 +21436,9 @@
       <c r="I525" t="n">
         <v>822</v>
       </c>
+      <c r="J525" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -19899,6 +21476,9 @@
       <c r="I526" t="n">
         <v>944</v>
       </c>
+      <c r="J526" t="n">
+        <v>1998</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -19936,6 +21516,9 @@
       <c r="I527" t="n">
         <v>1478</v>
       </c>
+      <c r="J527" t="n">
+        <v>1992</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -19973,6 +21556,9 @@
       <c r="I528" t="n">
         <v>947</v>
       </c>
+      <c r="J528" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -20006,6 +21592,9 @@
       <c r="I529" t="n">
         <v>187</v>
       </c>
+      <c r="J529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -20039,6 +21628,9 @@
       <c r="I530" t="n">
         <v>412</v>
       </c>
+      <c r="J530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -20072,6 +21664,9 @@
       <c r="I531" t="n">
         <v>1165</v>
       </c>
+      <c r="J531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -20105,6 +21700,9 @@
       <c r="I532" t="n">
         <v>1392</v>
       </c>
+      <c r="J532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -20138,6 +21736,9 @@
       <c r="I533" t="n">
         <v>80</v>
       </c>
+      <c r="J533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -20171,6 +21772,9 @@
       <c r="I534" t="n">
         <v>226</v>
       </c>
+      <c r="J534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -20204,6 +21808,9 @@
       <c r="I535" t="n">
         <v>1245</v>
       </c>
+      <c r="J535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -20237,6 +21844,9 @@
       <c r="I536" t="n">
         <v>187</v>
       </c>
+      <c r="J536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -20270,6 +21880,9 @@
       <c r="I537" t="n">
         <v>1411</v>
       </c>
+      <c r="J537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -20303,6 +21916,9 @@
       <c r="I538" t="n">
         <v>1392</v>
       </c>
+      <c r="J538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -20336,6 +21952,9 @@
       <c r="I539" t="n">
         <v>187</v>
       </c>
+      <c r="J539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -20369,6 +21988,9 @@
       <c r="I540" t="n">
         <v>454</v>
       </c>
+      <c r="J540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -20402,6 +22024,9 @@
       <c r="I541" t="n">
         <v>1411</v>
       </c>
+      <c r="J541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -20435,6 +22060,9 @@
       <c r="I542" t="n">
         <v>1392</v>
       </c>
+      <c r="J542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -20468,6 +22096,9 @@
       <c r="I543" t="n">
         <v>1022</v>
       </c>
+      <c r="J543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -20501,6 +22132,9 @@
       <c r="I544" t="n">
         <v>187</v>
       </c>
+      <c r="J544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -20534,6 +22168,9 @@
       <c r="I545" t="n">
         <v>1165</v>
       </c>
+      <c r="J545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -20567,6 +22204,9 @@
       <c r="I546" t="n">
         <v>831</v>
       </c>
+      <c r="J546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -20600,6 +22240,9 @@
       <c r="I547" t="n">
         <v>739</v>
       </c>
+      <c r="J547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -20633,6 +22276,9 @@
       <c r="I548" t="n">
         <v>630</v>
       </c>
+      <c r="J548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -20666,6 +22312,9 @@
       <c r="I549" t="n">
         <v>31</v>
       </c>
+      <c r="J549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -20699,6 +22348,9 @@
       <c r="I550" t="n">
         <v>1165</v>
       </c>
+      <c r="J550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -20732,6 +22384,9 @@
       <c r="I551" t="n">
         <v>564</v>
       </c>
+      <c r="J551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -20765,6 +22420,9 @@
       <c r="I552" t="n">
         <v>1171</v>
       </c>
+      <c r="J552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -20798,6 +22456,9 @@
       <c r="I553" t="n">
         <v>187</v>
       </c>
+      <c r="J553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -20831,6 +22492,9 @@
       <c r="I554" t="n">
         <v>412</v>
       </c>
+      <c r="J554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -20864,6 +22528,9 @@
       <c r="I555" t="n">
         <v>417</v>
       </c>
+      <c r="J555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -20896,6 +22563,9 @@
       </c>
       <c r="I556" t="n">
         <v>16</v>
+      </c>
+      <c r="J556" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/flow_based_domain/plants.xlsx
+++ b/flow_based_domain/plants.xlsx
@@ -2634,7 +2634,7 @@
         <v>5.27121</v>
       </c>
       <c r="I55" t="n">
-        <v>1307</v>
+        <v>1488</v>
       </c>
       <c r="J55" t="n">
         <v>1975</v>
@@ -2714,7 +2714,7 @@
         <v>5.27121</v>
       </c>
       <c r="I57" t="n">
-        <v>1307</v>
+        <v>1488</v>
       </c>
       <c r="J57" t="n">
         <v>1975</v>
@@ -2754,7 +2754,7 @@
         <v>5.27121</v>
       </c>
       <c r="I58" t="n">
-        <v>1307</v>
+        <v>1488</v>
       </c>
       <c r="J58" t="n">
         <v>1975</v>
@@ -2794,7 +2794,7 @@
         <v>5.27121</v>
       </c>
       <c r="I59" t="n">
-        <v>1307</v>
+        <v>1488</v>
       </c>
       <c r="J59" t="n">
         <v>1975</v>
@@ -3794,7 +3794,7 @@
         <v>17.181</v>
       </c>
       <c r="I84" t="n">
-        <v>332</v>
+        <v>92</v>
       </c>
       <c r="J84" t="n">
         <v>1996</v>
@@ -4114,7 +4114,7 @@
         <v>9.873709</v>
       </c>
       <c r="I92" t="n">
-        <v>870</v>
+        <v>435</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>12.88246</v>
       </c>
       <c r="I101" t="n">
-        <v>265</v>
+        <v>1184</v>
       </c>
       <c r="J101" t="n">
         <v>2010</v>
@@ -5314,7 +5314,7 @@
         <v>10.0655</v>
       </c>
       <c r="I122" t="n">
-        <v>578</v>
+        <v>106</v>
       </c>
       <c r="J122" t="n">
         <v>1993</v>
@@ -5474,7 +5474,7 @@
         <v>13.49696159</v>
       </c>
       <c r="I126" t="n">
-        <v>687</v>
+        <v>720</v>
       </c>
       <c r="J126" t="n">
         <v>1981</v>
@@ -5714,7 +5714,7 @@
         <v>7.306658</v>
       </c>
       <c r="I132" t="n">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>10.3359</v>
       </c>
       <c r="I137" t="n">
-        <v>1300</v>
+        <v>178</v>
       </c>
       <c r="J137" t="n">
         <v>1958</v>
@@ -6514,7 +6514,7 @@
         <v>10.182981</v>
       </c>
       <c r="I152" t="n">
-        <v>421</v>
+        <v>1279</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>8.112160000000001</v>
       </c>
       <c r="I155" t="n">
-        <v>604</v>
+        <v>100</v>
       </c>
       <c r="J155" t="n">
         <v>1978</v>
@@ -6954,7 +6954,7 @@
         <v>6.5992</v>
       </c>
       <c r="I163" t="n">
-        <v>1146</v>
+        <v>311</v>
       </c>
       <c r="J163" t="n">
         <v>1972</v>
@@ -7634,7 +7634,7 @@
         <v>8.132070000000001</v>
       </c>
       <c r="I180" t="n">
-        <v>319</v>
+        <v>139</v>
       </c>
       <c r="J180" t="n">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>7.306658</v>
       </c>
       <c r="I185" t="n">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="J185" t="n">
         <v>1988</v>
@@ -14674,7 +14674,7 @@
         <v>18.1681814</v>
       </c>
       <c r="I356" t="n">
-        <v>502</v>
+        <v>1308</v>
       </c>
       <c r="J356" t="n">
         <v>0</v>
@@ -20234,7 +20234,7 @@
         <v>23.7172</v>
       </c>
       <c r="I495" t="n">
-        <v>1083</v>
+        <v>109</v>
       </c>
       <c r="J495" t="n">
         <v>1987</v>
